--- a/biology/Médecine/5-(2-oxopropylideneamino)-6-D-ribitylaminouracil/5-(2-oxopropylideneamino)-6-D-ribitylaminouracil.xlsx
+++ b/biology/Médecine/5-(2-oxopropylideneamino)-6-D-ribitylaminouracil/5-(2-oxopropylideneamino)-6-D-ribitylaminouracil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le 5-(2-oxopropylidèneamino)-6-D-ribitylaminouracile (5-OP-RU) est une molécule dérivée du 5-Amino-6-(D-ribitylamino)uracil (5-A-RU), un précurseur de la Riboflavine chez les bactéries. Le 5-OP-RU est à ce jour l'antigène naturel le plus efficace pour l'activation des lymphocytes MAIT[2],[3],[4].
-Le 5-OP-RU est formé par condensation du 5-A-RU avec le méthylglyoxal. Chez la souris, le 5-OP-RU passe la barrière intestinale, de plus la molécule ou son précurseur est nécessaire au développement des lymphocytes MAIT dans le thymus[5]. Chez l'homme la diffusion du 5-OP-RU de l'intestin vers la circulation est probable, d'autant que le sérum de patients ayant une barrière intestinale altérée active les lymphocytes MAIT in vitro[6].
+Le 5-(2-oxopropylidèneamino)-6-D-ribitylaminouracile (5-OP-RU) est une molécule dérivée du 5-Amino-6-(D-ribitylamino)uracil (5-A-RU), un précurseur de la Riboflavine chez les bactéries. Le 5-OP-RU est à ce jour l'antigène naturel le plus efficace pour l'activation des lymphocytes MAIT.
+Le 5-OP-RU est formé par condensation du 5-A-RU avec le méthylglyoxal. Chez la souris, le 5-OP-RU passe la barrière intestinale, de plus la molécule ou son précurseur est nécessaire au développement des lymphocytes MAIT dans le thymus. Chez l'homme la diffusion du 5-OP-RU de l'intestin vers la circulation est probable, d'autant que le sérum de patients ayant une barrière intestinale altérée active les lymphocytes MAIT in vitro.
 </t>
         </is>
       </c>
